--- a/src/Excel/entregable2/Inputs.xlsx
+++ b/src/Excel/entregable2/Inputs.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE1F8CE-CED2-4E08-B2B9-48D426736261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75524794-F97B-4F8C-9CA4-35C36808343A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Entregable1" sheetId="5" r:id="rId1"/>
+    <sheet name="Entregable2" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/Excel/entregable2/Inputs.xlsx
+++ b/src/Excel/entregable2/Inputs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75524794-F97B-4F8C-9CA4-35C36808343A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915D1806-D4CB-45E5-9AE7-8EEE2092DD7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>CASO</t>
   </si>
@@ -27,6 +27,27 @@
   </si>
   <si>
     <t>Alta Cliente</t>
+  </si>
+  <si>
+    <t>Alta Cliente Control Dual</t>
+  </si>
+  <si>
+    <t>Modificar Cliente</t>
+  </si>
+  <si>
+    <t>Modificar Cliente Corporativo</t>
+  </si>
+  <si>
+    <t>Pago Masivo Prestamo</t>
+  </si>
+  <si>
+    <t>Proceso Abono Masivo CTS</t>
+  </si>
+  <si>
+    <t>Pago TC Reversa</t>
+  </si>
+  <si>
+    <t>Proceso Actualizacion Datos Masivos</t>
   </si>
 </sst>
 </file>
@@ -410,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A91A77-E5B6-4AE4-A13D-A81F28ECF0AB}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="31.6328125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -438,6 +459,62 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
